--- a/trend/Pinnacle Hist Futures/LeverageFactors.xlsx
+++ b/trend/Pinnacle Hist Futures/LeverageFactors.xlsx
@@ -24,6 +24,509 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="269">
   <si>
+    <t>ROUGH RICE</t>
+  </si>
+  <si>
+    <t>O_</t>
+  </si>
+  <si>
+    <t>OATS</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PALLADIUM</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PLATINUM</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>RBOB GASOLINE</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>RUSSELL 2000</t>
+  </si>
+  <si>
+    <t>S_</t>
+  </si>
+  <si>
+    <t>SOYBEANS</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SUGAR #11</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>S &amp; P 500, composite</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SWISS FRANC, day session</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SILVER  (COMMEX)</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>SOYBEAN MEAL</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SWISS FRANC, composite</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>S &amp; P 500, day session</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>STERLING, SHORT</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>T-NOTE, 10yr day session</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>T-NOTES, 2yr day session</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>T-NOTES, 2yr composite</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>T-NOTE, 10yr composite</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>T-BONDS, day session</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>EURO BOBL</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>T-BONDS, composite</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>EURO SCHATZ</t>
+  </si>
+  <si>
+    <t>W_</t>
+  </si>
+  <si>
+    <t>WHEAT, CBOT</t>
+  </si>
+  <si>
+    <t>GERMAN DAX INDEX</t>
+  </si>
+  <si>
+    <t>XU</t>
+  </si>
+  <si>
+    <t>DOW JONES EUROSTOXX50</t>
+  </si>
+  <si>
+    <t>YM</t>
+  </si>
+  <si>
+    <t>Mini Dow Jones ($5.00)</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>DOW JONES STOXX 50</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>DOW JONES, composite</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
+    <t>GOLD, Electronic</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>SILVER, Electronic</t>
+  </si>
+  <si>
+    <t>CANADIAN DOLLAR, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRITISH POUND, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUSTRALIAN DOLLAR, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EURO, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUSSELL 2000, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NASDAQ, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S &amp; P 500, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURAL GAS, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEATING OIL, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBOB GASOLINE, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOW JONES, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUDE OIL, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean annualised pct atr</t>
+  </si>
+  <si>
+    <t>mean annualised pct std dev</t>
+  </si>
+  <si>
+    <t>recent price date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big point value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min $ move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum exposure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desired % volatility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GERMAN DAX INDEX, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORN, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHEAT, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN DOLLAR</t>
+  </si>
+  <si>
+    <t>BRENT CRUDE OIL</t>
+  </si>
+  <si>
+    <t>BRENT GASOIL</t>
+  </si>
+  <si>
+    <t>BRITISH POUND</t>
+  </si>
+  <si>
+    <t>CANADIAN DOLLAR</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BRITISH POUND, composite</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>C_</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CAC40 INDEX</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CANADIAN 10YR BOND</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>COCOA</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CRUDE OIL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CANADIAN $$, composite</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CRB FUTURES</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>COTTON #2</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>MILK III, Comp.</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>DOW JONES, day session</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>EURO BOND (BUND)</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>US DOLLAR INDEX</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EURODOLLARS</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>NASDAQ, MINI</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>RUSSELL 2000, MINI</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>volatility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desired %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rolls per year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg spread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trades per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost per trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost per trade % ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk adj cost per trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holding cost % ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk adj holding cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHEAT, MINN</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NASDAQ 100</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NATURAL GAS</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>NIKKEI INDEX</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
     <t>EC</t>
   </si>
   <si>
@@ -377,509 +880,6 @@
   <si>
     <t>SWISS FRANC, micro</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CANADIAN DOLLAR, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRITISH POUND, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUSTRALIAN DOLLAR, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EURO, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUSSELL 2000, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NASDAQ, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S &amp; P 500, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURAL GAS, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEATING OIL, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBOB GASOLINE, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOW JONES, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRUDE OIL, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean annualised pct atr</t>
-  </si>
-  <si>
-    <t>mean annualised pct std dev</t>
-  </si>
-  <si>
-    <t>recent price date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recent price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>big point value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tick size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min $ move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minimum exposure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desired % volatility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minimum capital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GERMAN DAX INDEX, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CORN, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEAT, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN DOLLAR</t>
-  </si>
-  <si>
-    <t>BRENT CRUDE OIL</t>
-  </si>
-  <si>
-    <t>BRENT GASOIL</t>
-  </si>
-  <si>
-    <t>BRITISH POUND</t>
-  </si>
-  <si>
-    <t>CANADIAN DOLLAR</t>
-  </si>
-  <si>
-    <t>EURO</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>BRITISH POUND, composite</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>SOYBEAN OIL</t>
-  </si>
-  <si>
-    <t>C_</t>
-  </si>
-  <si>
-    <t>CORN</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CAC40 INDEX</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>CANADIAN 10YR BOND</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>COCOA</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CRUDE OIL</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>CANADIAN $$, composite</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>CRB FUTURES</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>COTTON #2</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>MILK III, Comp.</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>DOW JONES, day session</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>EURO BOND (BUND)</t>
-  </si>
-  <si>
-    <t>DX</t>
-  </si>
-  <si>
-    <t>US DOLLAR INDEX</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>EURODOLLARS</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>NASDAQ, MINI</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>RUSSELL 2000, MINI</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>volatility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desired %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rolls per year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avg spread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trades per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost per trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost per trade % ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk adj cost per trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>holding cost % ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk adj holding cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEAT, MINN</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>NASDAQ 100</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>NATURAL GAS</t>
-  </si>
-  <si>
-    <t>NK</t>
-  </si>
-  <si>
-    <t>NIKKEI INDEX</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>ROUGH RICE</t>
-  </si>
-  <si>
-    <t>O_</t>
-  </si>
-  <si>
-    <t>OATS</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>PALLADIUM</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PLATINUM</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>RBOB GASOLINE</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>RUSSELL 2000</t>
-  </si>
-  <si>
-    <t>S_</t>
-  </si>
-  <si>
-    <t>SOYBEANS</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>SUGAR #11</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>S &amp; P 500, composite</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SWISS FRANC, day session</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SILVER  (COMMEX)</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>SOYBEAN MEAL</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>SWISS FRANC, composite</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>S &amp; P 500, day session</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>STERLING, SHORT</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>T-NOTE, 10yr day session</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>T-NOTES, 2yr day session</t>
-  </si>
-  <si>
-    <t>TU</t>
-  </si>
-  <si>
-    <t>T-NOTES, 2yr composite</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>T-NOTE, 10yr composite</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>T-BONDS, day session</t>
-  </si>
-  <si>
-    <t>UB</t>
-  </si>
-  <si>
-    <t>EURO BOBL</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>T-BONDS, composite</t>
-  </si>
-  <si>
-    <t>UZ</t>
-  </si>
-  <si>
-    <t>EURO SCHATZ</t>
-  </si>
-  <si>
-    <t>W_</t>
-  </si>
-  <si>
-    <t>WHEAT, CBOT</t>
-  </si>
-  <si>
-    <t>GERMAN DAX INDEX</t>
-  </si>
-  <si>
-    <t>XU</t>
-  </si>
-  <si>
-    <t>DOW JONES EUROSTOXX50</t>
-  </si>
-  <si>
-    <t>YM</t>
-  </si>
-  <si>
-    <t>Mini Dow Jones ($5.00)</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>DOW JONES STOXX 50</t>
-  </si>
-  <si>
-    <t>ZD</t>
-  </si>
-  <si>
-    <t>DOW JONES, composite</t>
-  </si>
-  <si>
-    <t>ZG</t>
-  </si>
-  <si>
-    <t>GOLD, Electronic</t>
-  </si>
-  <si>
-    <t>ZI</t>
-  </si>
-  <si>
-    <t>SILVER, Electronic</t>
   </si>
 </sst>
 </file>
@@ -1286,12 +1286,12 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="9" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -1301,26 +1301,26 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1358,24 +1358,24 @@
   <sheetData>
     <row r="1" spans="2:5" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="D2" s="2">
         <v>42374</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="D3" s="2">
         <v>42374</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="D4" s="2">
         <v>42374</v>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
         <v>42374</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="D6" s="2">
         <v>42374</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="D7" s="2">
         <v>42374</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2">
         <v>42374</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2">
         <v>42374</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>42374</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>42374</v>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2">
         <v>42374</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2">
         <v>42374</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2">
         <v>42374</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2">
         <v>42374</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2">
         <v>39907</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>42374</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2">
         <v>42374</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2">
         <v>40703</v>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2">
         <v>42374</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2">
         <v>42374</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="D22" s="2">
         <v>42374</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2">
         <v>42374</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2">
         <v>42374</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2">
         <v>42374</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D26" s="2">
         <v>42374</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="D27" s="2">
         <v>42374</v>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="D28" s="2">
         <v>42374</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="D29" s="2">
         <v>42374</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="D30" s="2">
         <v>42374</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2">
         <v>42374</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="D32" s="2">
         <v>42374</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="D33" s="2">
         <v>42374</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D34" s="2">
         <v>42374</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="D35" s="2">
         <v>42374</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="D36" s="2">
         <v>42374</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="D37" s="2">
         <v>42374</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="D38" s="2">
         <v>42374</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="D39" s="2">
         <v>42374</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="D40" s="2">
         <v>42374</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D41" s="2">
         <v>42374</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2">
         <v>42374</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="D43" s="2">
         <v>42374</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="D44" s="2">
         <v>42374</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="D45" s="2">
         <v>42374</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="D46" s="2">
         <v>42374</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="D47" s="2">
         <v>42374</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="D48" s="2">
         <v>42374</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D49" s="2">
         <v>42374</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D50" s="2">
         <v>40703</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="D51" s="2">
         <v>42374</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="D52" s="2">
         <v>42374</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
         <v>42374</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2">
         <v>42374</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="D55" s="2">
         <v>42374</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
         <v>42374</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2">
         <v>42374</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>42374</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2">
         <v>42374</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2">
         <v>42374</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2">
         <v>42374</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2">
         <v>42374</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2">
         <v>42374</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2">
         <v>42374</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2">
         <v>42374</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2">
         <v>42374</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>42374</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>42374</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>42374</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>42374</v>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2">
         <v>42374</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>246</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="D72" s="2">
         <v>42374</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2">
         <v>42374</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2">
         <v>42374</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="D75" s="2">
         <v>42374</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="D76" s="2">
         <v>42374</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D77" s="2">
         <v>42374</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="D78" s="2">
         <v>42374</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D79" s="2">
         <v>42374</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="D80" s="2">
         <v>42374</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="D81" s="2">
         <v>42374</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2">
         <v>42374</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="D83" s="2">
         <v>40703</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="D84" s="2">
         <v>42374</v>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>57</v>
       </c>
       <c r="D85" s="2">
         <v>42374</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="D86" s="2">
         <v>42374</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="D87" s="2">
         <v>42374</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="D88" s="2">
         <v>42374</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D89" s="2">
         <v>42374</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="D90" s="2">
         <v>42374</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="D91" s="2">
         <v>42374</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="D92" s="2">
         <v>42374</v>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="D93" s="2">
         <v>42374</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="D94" s="2">
         <v>42374</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="D95" s="2">
         <v>42374</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="D96" s="2">
         <v>42374</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D97" s="2">
         <v>42374</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="D98" s="2">
         <v>42374</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D99" s="2">
         <v>42374</v>
@@ -2772,48 +2772,48 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>12.33</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="C3">
         <v>17.18</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>22.58</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>43.01</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>38.83</v>
@@ -2998,10 +2998,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>12.95</v>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>18.57</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>7.57</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>44.58</v>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>9.6</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C12">
         <v>11.06</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>32.42</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="C14">
         <v>22.4</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>13.87</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="C16">
         <v>6.34</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="C17">
         <v>8.33</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>0.53</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="C19">
         <v>27.86</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="C20">
         <v>25.95</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C21">
         <v>20.99</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C22">
         <v>4.12</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="C23">
         <v>0.11</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C24">
         <v>9.9700000000000006</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C26">
         <v>7.77</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="C27">
         <v>24.47</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>9.67</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="C29">
         <v>39.369999999999997</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="C30">
         <v>40.99</v>
@@ -3886,10 +3886,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="C31">
         <v>42.8</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="C32">
         <v>49.78</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="C33">
         <v>19.32</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="C34">
         <v>22.86</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="C35">
         <v>16.91</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="C36">
         <v>28.38</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C37">
         <v>19.55</v>
@@ -4145,10 +4145,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="C38">
         <v>23.38</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>38.93</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>38.78</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>20.28</v>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="C42">
         <v>9.6</v>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>18.170000000000002</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>0.3</v>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C45">
         <v>1.62</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="C46">
         <v>6.38</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>2.82</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C48">
         <v>12.31</v>
@@ -4552,10 +4552,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>0.73</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>20.39</v>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>17.010000000000002</v>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C52">
         <v>21.8</v>
@@ -4700,10 +4700,10 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>37.99</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>44.25</v>
@@ -4774,10 +4774,10 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>27.99</v>
@@ -4811,10 +4811,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="C56">
         <v>25.54</v>
@@ -4848,10 +4848,10 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="C57">
         <v>17.61</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="C58">
         <v>37.29</v>
@@ -4922,10 +4922,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>28.34</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="C60">
         <v>29.8</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="C61">
         <v>24.9</v>
@@ -5033,10 +5033,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>27.67</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="C63">
         <v>57.2</v>
@@ -5107,10 +5107,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>40.07</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>30.74</v>
@@ -5181,10 +5181,10 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>28.16</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>25.21</v>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="C68">
         <v>23.48</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="C69">
         <v>47.21</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="C70">
         <v>40.020000000000003</v>
@@ -5366,10 +5366,10 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C71">
         <v>51.87</v>
@@ -5421,8 +5421,8 @@
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5441,69 +5441,69 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B1" t="s">
+      <c r="R1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="S1" s="9" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>0.11</v>
@@ -5635,7 +5635,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5">
         <v>9.6</v>
@@ -5695,10 +5695,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>0.73</v>
@@ -5763,7 +5763,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5">
         <v>12.33</v>
@@ -5824,7 +5824,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5">
         <v>12.95</v>
@@ -5885,7 +5885,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5">
         <v>27.99</v>
@@ -5946,7 +5946,7 @@
     <row r="9" spans="1:20">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="C9" s="5">
         <v>9.6</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>0.53</v>
@@ -6074,7 +6074,7 @@
     <row r="11" spans="1:20">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5">
         <v>9.9700000000000006</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>25.95</v>
@@ -6193,7 +6193,7 @@
     <row r="13" spans="1:20">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5">
         <v>40.020000000000003</v>
@@ -6254,7 +6254,7 @@
     <row r="14" spans="1:20">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="C14" s="5">
         <v>25.21</v>
@@ -6315,7 +6315,7 @@
     <row r="15" spans="1:20">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5">
         <v>17.61</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>57.2</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="B17" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>21.8</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C18">
         <v>1.62</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="B19" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>20.99</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>2.82</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="C21">
         <v>16.91</v>
@@ -6750,10 +6750,10 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C22">
         <v>4.12</v>
@@ -6817,10 +6817,10 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>24.9</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="B24" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>27.86</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>40.07</v>
@@ -7009,10 +7009,10 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>27.99</v>
@@ -7076,10 +7076,10 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="C27">
         <v>39.369999999999997</v>
@@ -7143,10 +7143,10 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>38.78</v>
@@ -7210,10 +7210,10 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>17.010000000000002</v>
@@ -7277,10 +7277,10 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>9.6</v>
@@ -7344,10 +7344,10 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="C31">
         <v>22.4</v>
@@ -7411,10 +7411,10 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>28.38</v>
@@ -7478,10 +7478,10 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>20.39</v>
@@ -7545,10 +7545,10 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="C34">
         <v>8.33</v>
@@ -7612,10 +7612,10 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>6.38</v>
@@ -7679,10 +7679,10 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>27.67</v>
@@ -7746,10 +7746,10 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>12.33</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="B38" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="C38">
         <v>29.8</v>
@@ -7871,10 +7871,10 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="C39">
         <v>42.8</v>
@@ -7938,10 +7938,10 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>12.95</v>
@@ -8005,10 +8005,10 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C41">
         <v>7.77</v>
@@ -8072,10 +8072,10 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C42">
         <v>7.57</v>
@@ -8139,10 +8139,10 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <v>44.58</v>
@@ -8206,10 +8206,10 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>6.34</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>9.67</v>
@@ -8340,10 +8340,10 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>40.020000000000003</v>
@@ -8407,10 +8407,10 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C47">
         <v>32.42</v>
@@ -8474,10 +8474,10 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>25.21</v>
@@ -8541,10 +8541,10 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="C49">
         <v>9.6</v>
@@ -8608,10 +8608,10 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="C50">
         <v>23.48</v>
@@ -8675,10 +8675,10 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>18.57</v>
@@ -8742,10 +8742,10 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="C52">
         <v>57.2</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="B53" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="C53">
         <v>28.34</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>9.9700000000000006</v>
@@ -8934,10 +8934,10 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="C55">
         <v>19.32</v>
@@ -9001,10 +9001,10 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>30.74</v>
@@ -9068,10 +9068,10 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C57">
         <v>51.87</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="B58" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <v>22.58</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="B59" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>37.29</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="B60" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>44.25</v>
@@ -9309,10 +9309,10 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C61">
         <v>12.31</v>
@@ -9376,10 +9376,10 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="C62">
         <v>40.99</v>
@@ -9443,10 +9443,10 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="C63">
         <v>25.54</v>
@@ -9510,10 +9510,10 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="C64">
         <v>29.8</v>
@@ -9577,10 +9577,10 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="C65">
         <v>25.95</v>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="C66">
         <v>49.78</v>
@@ -9701,7 +9701,7 @@
         <v>1.1038961038961037E-2</v>
       </c>
       <c r="S66" s="9">
-        <f t="shared" ref="S66:S97" si="8">R66/D66</f>
+        <f t="shared" ref="S66:S89" si="8">R66/D66</f>
         <v>3.4271844268739639E-4</v>
       </c>
       <c r="T66" s="10">
@@ -9711,10 +9711,10 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>38.83</v>
@@ -9778,10 +9778,10 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C68">
         <v>28.34</v>
@@ -9845,10 +9845,10 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="C69">
         <v>17.61</v>
@@ -9912,10 +9912,10 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="C70">
         <v>17.18</v>
@@ -9979,10 +9979,10 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -10046,10 +10046,10 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="C72">
         <v>23.38</v>
@@ -10113,10 +10113,10 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="C73">
         <v>47.21</v>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="B74" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>47.21</v>
@@ -10238,10 +10238,10 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C75">
         <v>43.01</v>
@@ -10305,10 +10305,10 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="C76">
         <v>37.29</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>44.25</v>
@@ -10439,10 +10439,10 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C78">
         <v>20.99</v>
@@ -10506,10 +10506,10 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="C79">
         <v>22.86</v>
@@ -10573,10 +10573,10 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="C80">
         <v>27.86</v>
@@ -10640,10 +10640,10 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C81">
         <v>11.06</v>
@@ -10707,10 +10707,10 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C82">
         <v>21.8</v>
@@ -10774,10 +10774,10 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="C83">
         <v>13.87</v>
@@ -10841,10 +10841,10 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="C84">
         <v>22.58</v>
@@ -10908,10 +10908,10 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>37.99</v>
@@ -10975,10 +10975,10 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="C86">
         <v>20.28</v>
@@ -11042,10 +11042,10 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>18.170000000000002</v>
@@ -11109,10 +11109,10 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="C88">
         <v>24.47</v>
@@ -11176,10 +11176,10 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>28.16</v>
@@ -11251,7 +11251,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/trend/Pinnacle Hist Futures/LeverageFactors.xlsx
+++ b/trend/Pinnacle Hist Futures/LeverageFactors.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14640" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1540" yWindow="160" windowWidth="22520" windowHeight="8660" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="good data" sheetId="2" r:id="rId3"/>
     <sheet name="using minis" sheetId="5" r:id="rId4"/>
+    <sheet name="Pinnacle to zipline" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,817 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="339">
+  <si>
+    <t>Not Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On List?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZO</t>
+  </si>
+  <si>
+    <t>OATS, Electronic</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>SOYBEAN MEAL, Electronic</t>
+  </si>
+  <si>
+    <t>ZR</t>
+  </si>
+  <si>
+    <t>ROUGH RICE, Electronic</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>WHEAT, Electronic</t>
+  </si>
+  <si>
+    <t>ZU</t>
+  </si>
+  <si>
+    <t>CRUDE OIL, Electronic</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>RBOB, Electronic</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>HEATING OIL, electronic</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>NATURAL GAS, electronic</t>
+  </si>
+  <si>
+    <t>ZK</t>
+  </si>
+  <si>
+    <t>COPPER, electronic</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>PALLADIUM, electronic</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>PLATINUM, electronic</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>FEEDER CATTLE, Electronic</t>
+  </si>
+  <si>
+    <t>ZT</t>
+  </si>
+  <si>
+    <t>LIVE CATTLE, Electronic</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>LEAN HOGS, Electronic</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closing Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN $$, day session</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN $$, composite</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN PRICE INDEX</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BRENT CRUDE OIL, composite</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BRENT GASOIL, comp.</t>
+  </si>
+  <si>
+    <t>SOYBEANS, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPPER, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SILVER, mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWISS FRANC, micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pinnacle symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipline symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CAC40 INDEX</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CANADIAN 10YR BOND</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>COCOA</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CRUDE OIL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CANADIAN $$, composite</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CRB FUTURES</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>COTTON #2</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>MILK III, Comp.</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>DOW JONES, day session</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>EURO BOND (BUND)</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>US DOLLAR INDEX</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EURODOLLARS</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>NASDAQ, MINI</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>RUSSELL 2000, MINI</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>volatility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desired %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rolls per year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg spread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trades per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost per trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost per trade % ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk adj cost per trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holding cost % ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk adj holding cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHEAT, MINN</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NASDAQ 100</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NATURAL GAS</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>NIKKEI INDEX</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>JAPANESE YEN</t>
+  </si>
+  <si>
+    <t>LEAN HOGS</t>
+  </si>
+  <si>
+    <t>MILK III</t>
+  </si>
+  <si>
+    <t>DOW JONES, MINI</t>
+  </si>
+  <si>
+    <t>S &amp; P 400, (Mini electronic)</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>SWISS FRANC</t>
+  </si>
+  <si>
+    <t>T-BONDS</t>
+  </si>
+  <si>
+    <t>T-NOTE, 10yr</t>
+  </si>
+  <si>
+    <t>T-NOTE, 5yr</t>
+  </si>
+  <si>
+    <t>T-NOTE, 2yr</t>
+  </si>
+  <si>
+    <t>S &amp; P 500, MINI</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>T-NOTE, 5yr day session</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>T-NOTE, 5yr composite</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FEEDER CATTLE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FED FUNDS</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>EURO, composite</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>EURO, day session</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>GOLD (COMMEX)</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>GOLDMAN SAKS C. I.</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>GILT, LONG  BOND</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>COPPER</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>HEATING OIL #2</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>HANG SENG</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t>JAPANESE YEN, composite</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>ORANGE JUICE</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>COFFEE</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>WHEAT, KC</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LUMBER</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LIVE CATTLE</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>LIVE HOGS</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>FTSE 100 INDEX</t>
+  </si>
+  <si>
+    <t>EURODOLLAR, composite</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>S&amp;P 400 (Mini electronic)</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MEXICAN PESO</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>ZC</t>
+  </si>
+  <si>
+    <t>CORN, Electronic</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>SOYBEANS, Electronic</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL, Electronic</t>
+  </si>
   <si>
     <t>ROUGH RICE</t>
   </si>
@@ -350,536 +1161,6 @@
   </si>
   <si>
     <t>CORN</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CAC40 INDEX</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>CANADIAN 10YR BOND</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>COCOA</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CRUDE OIL</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>CANADIAN $$, composite</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>CRB FUTURES</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>COTTON #2</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>MILK III, Comp.</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>DOW JONES, day session</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>EURO BOND (BUND)</t>
-  </si>
-  <si>
-    <t>DX</t>
-  </si>
-  <si>
-    <t>US DOLLAR INDEX</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>EURODOLLARS</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>NASDAQ, MINI</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>RUSSELL 2000, MINI</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>volatility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desired %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rolls per year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avg spread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trades per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost per trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost per trade % ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk adj cost per trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>holding cost % ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk adj holding cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHEAT, MINN</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>NASDAQ 100</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>NATURAL GAS</t>
-  </si>
-  <si>
-    <t>NK</t>
-  </si>
-  <si>
-    <t>NIKKEI INDEX</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>JAPANESE YEN</t>
-  </si>
-  <si>
-    <t>LEAN HOGS</t>
-  </si>
-  <si>
-    <t>MILK III</t>
-  </si>
-  <si>
-    <t>DOW JONES, MINI</t>
-  </si>
-  <si>
-    <t>S &amp; P 400, (Mini electronic)</t>
-  </si>
-  <si>
-    <t>SILVER</t>
-  </si>
-  <si>
-    <t>SWISS FRANC</t>
-  </si>
-  <si>
-    <t>T-BONDS</t>
-  </si>
-  <si>
-    <t>T-NOTE, 10yr</t>
-  </si>
-  <si>
-    <t>T-NOTE, 5yr</t>
-  </si>
-  <si>
-    <t>T-NOTE, 2yr</t>
-  </si>
-  <si>
-    <t>S &amp; P 500, MINI</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>T-NOTE, 5yr day session</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>T-NOTE, 5yr composite</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>FEEDER CATTLE</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>FED FUNDS</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>EURO, composite</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>EURO, day session</t>
-  </si>
-  <si>
-    <t>GC</t>
-  </si>
-  <si>
-    <t>GOLD (COMMEX)</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>GOLDMAN SAKS C. I.</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>GILT, LONG  BOND</t>
-  </si>
-  <si>
-    <t>HG</t>
-  </si>
-  <si>
-    <t>COPPER</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>HEATING OIL #2</t>
-  </si>
-  <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>HANG SENG</t>
-  </si>
-  <si>
-    <t>JN</t>
-  </si>
-  <si>
-    <t>JAPANESE YEN, composite</t>
-  </si>
-  <si>
-    <t>JO</t>
-  </si>
-  <si>
-    <t>ORANGE JUICE</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>COFFEE</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>WHEAT, KC</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>LUMBER</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>LIVE CATTLE</t>
-  </si>
-  <si>
-    <t>LH</t>
-  </si>
-  <si>
-    <t>LIVE HOGS</t>
-  </si>
-  <si>
-    <t>LX</t>
-  </si>
-  <si>
-    <t>FTSE 100 INDEX</t>
-  </si>
-  <si>
-    <t>EURODOLLAR, composite</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>S&amp;P 400 (Mini electronic)</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>MEXICAN PESO</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>ZC</t>
-  </si>
-  <si>
-    <t>CORN, Electronic</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>SOYBEANS, Electronic</t>
-  </si>
-  <si>
-    <t>ZL</t>
-  </si>
-  <si>
-    <t>SOYBEAN OIL, Electronic</t>
-  </si>
-  <si>
-    <t>ZO</t>
-  </si>
-  <si>
-    <t>OATS, Electronic</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>SOYBEAN MEAL, Electronic</t>
-  </si>
-  <si>
-    <t>ZR</t>
-  </si>
-  <si>
-    <t>ROUGH RICE, Electronic</t>
-  </si>
-  <si>
-    <t>ZW</t>
-  </si>
-  <si>
-    <t>WHEAT, Electronic</t>
-  </si>
-  <si>
-    <t>ZU</t>
-  </si>
-  <si>
-    <t>CRUDE OIL, Electronic</t>
-  </si>
-  <si>
-    <t>ZB</t>
-  </si>
-  <si>
-    <t>RBOB, Electronic</t>
-  </si>
-  <si>
-    <t>ZH</t>
-  </si>
-  <si>
-    <t>HEATING OIL, electronic</t>
-  </si>
-  <si>
-    <t>ZN</t>
-  </si>
-  <si>
-    <t>NATURAL GAS, electronic</t>
-  </si>
-  <si>
-    <t>ZK</t>
-  </si>
-  <si>
-    <t>COPPER, electronic</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>PALLADIUM, electronic</t>
-  </si>
-  <si>
-    <t>ZP</t>
-  </si>
-  <si>
-    <t>PLATINUM, electronic</t>
-  </si>
-  <si>
-    <t>ZF</t>
-  </si>
-  <si>
-    <t>FEEDER CATTLE, Electronic</t>
-  </si>
-  <si>
-    <t>ZT</t>
-  </si>
-  <si>
-    <t>LIVE CATTLE, Electronic</t>
-  </si>
-  <si>
-    <t>ZZ</t>
-  </si>
-  <si>
-    <t>LEAN HOGS, Electronic</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closing Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN $$, day session</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN $$, composite</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN PRICE INDEX</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BRENT CRUDE OIL, composite</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>BRENT GASOIL, comp.</t>
-  </si>
-  <si>
-    <t>SOYBEANS, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPPER, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SILVER, mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWISS FRANC, micro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1286,12 +1567,12 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="9" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -1301,26 +1582,26 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1358,24 +1639,24 @@
   <sheetData>
     <row r="1" spans="2:5" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2">
         <v>42374</v>
@@ -1386,10 +1667,10 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>42374</v>
@@ -1400,10 +1681,10 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2">
         <v>42374</v>
@@ -1414,10 +1695,10 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="D5" s="2">
         <v>42374</v>
@@ -1428,10 +1709,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>42374</v>
@@ -1442,10 +1723,10 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2">
         <v>42374</v>
@@ -1456,10 +1737,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="D8" s="2">
         <v>42374</v>
@@ -1470,10 +1751,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="D9" s="2">
         <v>42374</v>
@@ -1484,10 +1765,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="D10" s="2">
         <v>42374</v>
@@ -1498,10 +1779,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2">
         <v>42374</v>
@@ -1512,10 +1793,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2">
         <v>42374</v>
@@ -1526,10 +1807,10 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2">
         <v>42374</v>
@@ -1540,10 +1821,10 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2">
         <v>42374</v>
@@ -1554,10 +1835,10 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2">
         <v>42374</v>
@@ -1568,10 +1849,10 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2">
         <v>39907</v>
@@ -1582,10 +1863,10 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2">
         <v>42374</v>
@@ -1596,10 +1877,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2">
         <v>42374</v>
@@ -1610,10 +1891,10 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D19" s="2">
         <v>40703</v>
@@ -1624,10 +1905,10 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2">
         <v>42374</v>
@@ -1638,10 +1919,10 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2">
         <v>42374</v>
@@ -1652,10 +1933,10 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2">
         <v>42374</v>
@@ -1666,10 +1947,10 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D23" s="2">
         <v>42374</v>
@@ -1680,10 +1961,10 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2">
         <v>42374</v>
@@ -1694,10 +1975,10 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2">
         <v>42374</v>
@@ -1708,10 +1989,10 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D26" s="2">
         <v>42374</v>
@@ -1722,10 +2003,10 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D27" s="2">
         <v>42374</v>
@@ -1736,10 +2017,10 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D28" s="2">
         <v>42374</v>
@@ -1750,10 +2031,10 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D29" s="2">
         <v>42374</v>
@@ -1764,10 +2045,10 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D30" s="2">
         <v>42374</v>
@@ -1778,10 +2059,10 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D31" s="2">
         <v>42374</v>
@@ -1792,10 +2073,10 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D32" s="2">
         <v>42374</v>
@@ -1806,10 +2087,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D33" s="2">
         <v>42374</v>
@@ -1820,10 +2101,10 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D34" s="2">
         <v>42374</v>
@@ -1834,10 +2115,10 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2">
         <v>42374</v>
@@ -1848,10 +2129,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D36" s="2">
         <v>42374</v>
@@ -1862,10 +2143,10 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D37" s="2">
         <v>42374</v>
@@ -1876,10 +2157,10 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D38" s="2">
         <v>42374</v>
@@ -1890,10 +2171,10 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D39" s="2">
         <v>42374</v>
@@ -1904,10 +2185,10 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D40" s="2">
         <v>42374</v>
@@ -1918,10 +2199,10 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D41" s="2">
         <v>42374</v>
@@ -1932,10 +2213,10 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D42" s="2">
         <v>42374</v>
@@ -1946,10 +2227,10 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D43" s="2">
         <v>42374</v>
@@ -1960,10 +2241,10 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D44" s="2">
         <v>42374</v>
@@ -1974,10 +2255,10 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D45" s="2">
         <v>42374</v>
@@ -1988,10 +2269,10 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D46" s="2">
         <v>42374</v>
@@ -2002,10 +2283,10 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D47" s="2">
         <v>42374</v>
@@ -2016,10 +2297,10 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D48" s="2">
         <v>42374</v>
@@ -2030,10 +2311,10 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2">
         <v>42374</v>
@@ -2044,10 +2325,10 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D50" s="2">
         <v>40703</v>
@@ -2058,10 +2339,10 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D51" s="2">
         <v>42374</v>
@@ -2072,10 +2353,10 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D52" s="2">
         <v>42374</v>
@@ -2086,10 +2367,10 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="D53" s="2">
         <v>42374</v>
@@ -2100,10 +2381,10 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="D54" s="2">
         <v>42374</v>
@@ -2114,10 +2395,10 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="D55" s="2">
         <v>42374</v>
@@ -2128,10 +2409,10 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="D56" s="2">
         <v>42374</v>
@@ -2142,10 +2423,10 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="D57" s="2">
         <v>42374</v>
@@ -2156,10 +2437,10 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="D58" s="2">
         <v>42374</v>
@@ -2170,10 +2451,10 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D59" s="2">
         <v>42374</v>
@@ -2184,10 +2465,10 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="D60" s="2">
         <v>42374</v>
@@ -2198,10 +2479,10 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="D61" s="2">
         <v>42374</v>
@@ -2212,10 +2493,10 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="D62" s="2">
         <v>42374</v>
@@ -2226,10 +2507,10 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="D63" s="2">
         <v>42374</v>
@@ -2240,10 +2521,10 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="D64" s="2">
         <v>42374</v>
@@ -2254,10 +2535,10 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="D65" s="2">
         <v>42374</v>
@@ -2268,10 +2549,10 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="D66" s="2">
         <v>42374</v>
@@ -2282,10 +2563,10 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="D67" s="2">
         <v>42374</v>
@@ -2296,10 +2577,10 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="D68" s="2">
         <v>42374</v>
@@ -2310,10 +2591,10 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="D69" s="2">
         <v>42374</v>
@@ -2324,10 +2605,10 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="D70" s="2">
         <v>42374</v>
@@ -2338,10 +2619,10 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="D71" s="2">
         <v>42374</v>
@@ -2352,10 +2633,10 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="D72" s="2">
         <v>42374</v>
@@ -2366,10 +2647,10 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="D73" s="2">
         <v>42374</v>
@@ -2380,10 +2661,10 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="D74" s="2">
         <v>42374</v>
@@ -2394,10 +2675,10 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="D75" s="2">
         <v>42374</v>
@@ -2408,10 +2689,10 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="D76" s="2">
         <v>42374</v>
@@ -2422,10 +2703,10 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="D77" s="2">
         <v>42374</v>
@@ -2436,10 +2717,10 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>291</v>
       </c>
       <c r="D78" s="2">
         <v>42374</v>
@@ -2450,10 +2731,10 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="D79" s="2">
         <v>42374</v>
@@ -2464,10 +2745,10 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="D80" s="2">
         <v>42374</v>
@@ -2478,10 +2759,10 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>42374</v>
@@ -2492,10 +2773,10 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D82" s="2">
         <v>42374</v>
@@ -2506,10 +2787,10 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="D83" s="2">
         <v>40703</v>
@@ -2520,10 +2801,10 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="D84" s="2">
         <v>42374</v>
@@ -2534,10 +2815,10 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="D85" s="2">
         <v>42374</v>
@@ -2548,10 +2829,10 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>42374</v>
@@ -2562,10 +2843,10 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="D87" s="2">
         <v>42374</v>
@@ -2576,10 +2857,10 @@
     </row>
     <row r="88" spans="2:5">
       <c r="B88" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="D88" s="2">
         <v>42374</v>
@@ -2590,10 +2871,10 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="D89" s="2">
         <v>42374</v>
@@ -2604,10 +2885,10 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="D90" s="2">
         <v>42374</v>
@@ -2618,10 +2899,10 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>42374</v>
@@ -2632,10 +2913,10 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2">
         <v>42374</v>
@@ -2646,10 +2927,10 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2">
         <v>42374</v>
@@ -2660,10 +2941,10 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2">
         <v>42374</v>
@@ -2674,10 +2955,10 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D95" s="2">
         <v>42374</v>
@@ -2688,10 +2969,10 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D96" s="2">
         <v>42374</v>
@@ -2702,10 +2983,10 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>42374</v>
@@ -2716,10 +2997,10 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" t="s">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>42374</v>
@@ -2730,10 +3011,10 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="D99" s="2">
         <v>42374</v>
@@ -2759,8 +3040,8 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2772,48 +3053,48 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="C2">
         <v>12.33</v>
@@ -2850,10 +3131,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>17.18</v>
@@ -2887,10 +3168,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="C4">
         <v>22.58</v>
@@ -2924,10 +3205,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>43.01</v>
@@ -2961,10 +3242,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="C6">
         <v>38.83</v>
@@ -2998,10 +3279,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>330</v>
       </c>
       <c r="C7">
         <v>12.95</v>
@@ -3035,10 +3316,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C8">
         <v>18.57</v>
@@ -3072,10 +3353,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>7.57</v>
@@ -3109,10 +3390,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <v>44.58</v>
@@ -3146,10 +3427,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="C11">
         <v>9.6</v>
@@ -3183,10 +3464,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C12">
         <v>11.06</v>
@@ -3220,10 +3501,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>32.42</v>
@@ -3257,10 +3538,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C14">
         <v>22.4</v>
@@ -3294,10 +3575,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>13.87</v>
@@ -3331,10 +3612,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>6.34</v>
@@ -3368,10 +3649,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C17">
         <v>8.33</v>
@@ -3405,10 +3686,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>0.53</v>
@@ -3442,10 +3723,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C19">
         <v>27.86</v>
@@ -3479,10 +3760,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C20">
         <v>25.95</v>
@@ -3516,10 +3797,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C21">
         <v>20.99</v>
@@ -3553,10 +3834,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C22">
         <v>4.12</v>
@@ -3590,10 +3871,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C23">
         <v>0.11</v>
@@ -3627,10 +3908,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="C24">
         <v>9.9700000000000006</v>
@@ -3664,10 +3945,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -3701,10 +3982,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C26">
         <v>7.77</v>
@@ -3738,10 +4019,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C27">
         <v>24.47</v>
@@ -3775,10 +4056,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C28">
         <v>9.67</v>
@@ -3812,10 +4093,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C29">
         <v>39.369999999999997</v>
@@ -3849,10 +4130,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C30">
         <v>40.99</v>
@@ -3886,10 +4167,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C31">
         <v>42.8</v>
@@ -3923,10 +4204,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C32">
         <v>49.78</v>
@@ -3960,10 +4241,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C33">
         <v>19.32</v>
@@ -3997,10 +4278,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C34">
         <v>22.86</v>
@@ -4034,10 +4315,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C35">
         <v>16.91</v>
@@ -4071,10 +4352,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C36">
         <v>28.38</v>
@@ -4108,10 +4389,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C37">
         <v>19.55</v>
@@ -4145,10 +4426,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C38">
         <v>23.38</v>
@@ -4182,10 +4463,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="C39">
         <v>38.93</v>
@@ -4219,10 +4500,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="C40">
         <v>38.78</v>
@@ -4256,10 +4537,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="C41">
         <v>20.28</v>
@@ -4293,10 +4574,10 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C42">
         <v>9.6</v>
@@ -4330,10 +4611,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="C43">
         <v>18.170000000000002</v>
@@ -4367,10 +4648,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="C44">
         <v>0.3</v>
@@ -4404,10 +4685,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C45">
         <v>1.62</v>
@@ -4441,10 +4722,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C46">
         <v>6.38</v>
@@ -4478,10 +4759,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="C47">
         <v>2.82</v>
@@ -4515,10 +4796,10 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C48">
         <v>12.31</v>
@@ -4552,10 +4833,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="C49">
         <v>0.73</v>
@@ -4589,10 +4870,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="C50">
         <v>20.39</v>
@@ -4626,10 +4907,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>291</v>
       </c>
       <c r="C51">
         <v>17.010000000000002</v>
@@ -4663,10 +4944,10 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C52">
         <v>21.8</v>
@@ -4700,10 +4981,10 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="C53">
         <v>37.99</v>
@@ -4737,10 +5018,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="C54">
         <v>44.25</v>
@@ -4774,10 +5055,10 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="C55">
         <v>27.99</v>
@@ -4811,10 +5092,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C56">
         <v>25.54</v>
@@ -4848,10 +5129,10 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C57">
         <v>17.61</v>
@@ -4885,10 +5166,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C58">
         <v>37.29</v>
@@ -4922,10 +5203,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C59">
         <v>28.34</v>
@@ -4959,10 +5240,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C60">
         <v>29.8</v>
@@ -4996,10 +5277,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="C61">
         <v>24.9</v>
@@ -5033,10 +5314,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="C62">
         <v>27.67</v>
@@ -5070,10 +5351,10 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C63">
         <v>57.2</v>
@@ -5107,10 +5388,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="C64">
         <v>40.07</v>
@@ -5144,10 +5425,10 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="C65">
         <v>30.74</v>
@@ -5181,10 +5462,10 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="C66">
         <v>28.16</v>
@@ -5218,10 +5499,10 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="C67">
         <v>25.21</v>
@@ -5255,10 +5536,10 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C68">
         <v>23.48</v>
@@ -5292,10 +5573,10 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>47.21</v>
@@ -5329,10 +5610,10 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="C70">
         <v>40.020000000000003</v>
@@ -5366,10 +5647,10 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C71">
         <v>51.87</v>
@@ -5408,6 +5689,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5420,8 +5702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
@@ -5441,69 +5723,69 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -5567,10 +5849,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>0.11</v>
@@ -5635,7 +5917,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="C4" s="5">
         <v>9.6</v>
@@ -5695,10 +5977,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="C5" s="5">
         <v>0.73</v>
@@ -5763,7 +6045,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="C6" s="5">
         <v>12.33</v>
@@ -5824,7 +6106,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c r="C7" s="5">
         <v>12.95</v>
@@ -5885,7 +6167,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="C8" s="5">
         <v>27.99</v>
@@ -5946,7 +6228,7 @@
     <row r="9" spans="1:20">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5">
         <v>9.6</v>
@@ -6006,10 +6288,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>0.53</v>
@@ -6074,7 +6356,7 @@
     <row r="11" spans="1:20">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="C11" s="5">
         <v>9.9700000000000006</v>
@@ -6134,7 +6416,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="C12">
         <v>25.95</v>
@@ -6193,7 +6475,7 @@
     <row r="13" spans="1:20">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="C13" s="5">
         <v>40.020000000000003</v>
@@ -6254,7 +6536,7 @@
     <row r="14" spans="1:20">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5">
         <v>25.21</v>
@@ -6315,7 +6597,7 @@
     <row r="15" spans="1:20">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="C15" s="5">
         <v>17.61</v>
@@ -6375,7 +6657,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="B16" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="C16">
         <v>57.2</v>
@@ -6433,7 +6715,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="B17" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="C17">
         <v>21.8</v>
@@ -6491,10 +6773,10 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C18">
         <v>1.62</v>
@@ -6558,7 +6840,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="C19">
         <v>20.99</v>
@@ -6616,10 +6898,10 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="C20">
         <v>2.82</v>
@@ -6683,10 +6965,10 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C21">
         <v>16.91</v>
@@ -6750,10 +7032,10 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C22">
         <v>4.12</v>
@@ -6817,10 +7099,10 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="C23">
         <v>24.9</v>
@@ -6884,7 +7166,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="B24" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C24">
         <v>27.86</v>
@@ -6942,10 +7224,10 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="C25">
         <v>40.07</v>
@@ -7009,10 +7291,10 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="C26">
         <v>27.99</v>
@@ -7076,10 +7358,10 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C27">
         <v>39.369999999999997</v>
@@ -7143,10 +7425,10 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="C28">
         <v>38.78</v>
@@ -7210,10 +7492,10 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>291</v>
       </c>
       <c r="C29">
         <v>17.010000000000002</v>
@@ -7277,10 +7559,10 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="C30">
         <v>9.6</v>
@@ -7344,10 +7626,10 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C31">
         <v>22.4</v>
@@ -7411,10 +7693,10 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C32">
         <v>28.38</v>
@@ -7478,10 +7760,10 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="C33">
         <v>20.39</v>
@@ -7545,10 +7827,10 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C34">
         <v>8.33</v>
@@ -7612,10 +7894,10 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C35">
         <v>6.38</v>
@@ -7679,10 +7961,10 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="C36">
         <v>27.67</v>
@@ -7746,10 +8028,10 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="C37">
         <v>12.33</v>
@@ -7813,7 +8095,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="B38" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>29.8</v>
@@ -7871,10 +8153,10 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C39">
         <v>42.8</v>
@@ -7938,10 +8220,10 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>330</v>
       </c>
       <c r="C40">
         <v>12.95</v>
@@ -8005,10 +8287,10 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C41">
         <v>7.77</v>
@@ -8072,10 +8354,10 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>7.57</v>
@@ -8139,10 +8421,10 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C43">
         <v>44.58</v>
@@ -8206,10 +8488,10 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C44">
         <v>6.34</v>
@@ -8273,10 +8555,10 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>9.67</v>
@@ -8340,10 +8622,10 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="C46">
         <v>40.020000000000003</v>
@@ -8407,10 +8689,10 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C47">
         <v>32.42</v>
@@ -8474,10 +8756,10 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="C48">
         <v>25.21</v>
@@ -8541,10 +8823,10 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C49">
         <v>9.6</v>
@@ -8608,10 +8890,10 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C50">
         <v>23.48</v>
@@ -8675,10 +8957,10 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C51">
         <v>18.57</v>
@@ -8742,10 +9024,10 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C52">
         <v>57.2</v>
@@ -8809,7 +9091,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="B53" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>28.34</v>
@@ -8867,10 +9149,10 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="C54">
         <v>9.9700000000000006</v>
@@ -8934,10 +9216,10 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C55">
         <v>19.32</v>
@@ -9001,10 +9283,10 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="C56">
         <v>30.74</v>
@@ -9068,10 +9350,10 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C57">
         <v>51.87</v>
@@ -9135,7 +9417,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="B58" t="s">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="C58">
         <v>22.58</v>
@@ -9193,7 +9475,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="B59" t="s">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="C59">
         <v>37.29</v>
@@ -9251,7 +9533,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="B60" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="C60">
         <v>44.25</v>
@@ -9309,10 +9591,10 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C61">
         <v>12.31</v>
@@ -9376,10 +9658,10 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C62">
         <v>40.99</v>
@@ -9443,10 +9725,10 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C63">
         <v>25.54</v>
@@ -9510,10 +9792,10 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C64">
         <v>29.8</v>
@@ -9577,10 +9859,10 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C65">
         <v>25.95</v>
@@ -9644,10 +9926,10 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C66">
         <v>49.78</v>
@@ -9711,10 +9993,10 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="C67">
         <v>38.83</v>
@@ -9778,10 +10060,10 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C68">
         <v>28.34</v>
@@ -9845,10 +10127,10 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C69">
         <v>17.61</v>
@@ -9912,10 +10194,10 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="C70">
         <v>17.18</v>
@@ -9979,10 +10261,10 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -10046,10 +10328,10 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C72">
         <v>23.38</v>
@@ -10113,10 +10395,10 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C73">
         <v>47.21</v>
@@ -10180,7 +10462,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="B74" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="C74">
         <v>47.21</v>
@@ -10238,10 +10520,10 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>328</v>
       </c>
       <c r="C75">
         <v>43.01</v>
@@ -10305,10 +10587,10 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C76">
         <v>37.29</v>
@@ -10372,10 +10654,10 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="C77">
         <v>44.25</v>
@@ -10439,10 +10721,10 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C78">
         <v>20.99</v>
@@ -10506,10 +10788,10 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C79">
         <v>22.86</v>
@@ -10573,10 +10855,10 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C80">
         <v>27.86</v>
@@ -10640,10 +10922,10 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C81">
         <v>11.06</v>
@@ -10707,10 +10989,10 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C82">
         <v>21.8</v>
@@ -10774,10 +11056,10 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C83">
         <v>13.87</v>
@@ -10841,10 +11123,10 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="C84">
         <v>22.58</v>
@@ -10908,10 +11190,10 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="C85">
         <v>37.99</v>
@@ -10975,10 +11257,10 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="C86">
         <v>20.28</v>
@@ -11042,10 +11324,10 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="C87">
         <v>18.170000000000002</v>
@@ -11109,10 +11391,10 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C88">
         <v>24.47</v>
@@ -11176,10 +11458,10 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="C89">
         <v>28.16</v>
@@ -11257,4 +11539,995 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>